--- a/张义敏-工作周报0918-0920.xlsx
+++ b/张义敏-工作周报0918-0920.xlsx
@@ -653,14 +653,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>版画，表框等单选以及多选效果开发完成，待线上测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>模拟选择器功能开发，实现选择功能，待线上测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>发布作品功能前端基本验证完成，待后端提供接口后进行测试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -670,6 +662,14 @@
   </si>
   <si>
     <t>本地mock测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品类别、材质、主题、风格等模拟选择器功能开发，实现选择功能，待线上测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否版画、裱框、是否议价等单选以及多选效果开发完成，待线上测试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3011,7 +3011,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3069,7 +3069,7 @@
     <row r="7" spans="1:3" ht="33" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C7" s="49" t="s">
         <v>27</v>
@@ -3078,7 +3078,7 @@
     <row r="8" spans="1:3" ht="33" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C8" s="49" t="s">
         <v>27</v>
@@ -3087,7 +3087,7 @@
     <row r="9" spans="1:3" ht="33" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" s="49" t="s">
         <v>27</v>
@@ -3096,7 +3096,7 @@
     <row r="10" spans="1:3" ht="33" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" s="49" t="s">
         <v>27</v>
@@ -3119,7 +3119,7 @@
     <row r="13" spans="1:3" ht="33" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C13" s="49"/>
     </row>
